--- a/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.708399513538657</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>6.025298232799768</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>32.57005375363718</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>51.73956695713121</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>83.4659123498958</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>20.7636246605975</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>38.55936327828417</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>25.60720851682374</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2.526309198661771</v>
+      </c>
+      <c r="D3">
+        <v>5.56626117770542</v>
+      </c>
+      <c r="E3">
+        <v>29.90488631590555</v>
+      </c>
+      <c r="F3">
+        <v>47.69490680178539</v>
+      </c>
+      <c r="G3">
+        <v>76.91696011752639</v>
+      </c>
+      <c r="H3">
+        <v>19.13902625709763</v>
+      </c>
+      <c r="I3">
+        <v>35.53346707919891</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>24.22561817997339</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2.41415820286552</v>
+      </c>
+      <c r="D4">
+        <v>5.278112018481883</v>
+      </c>
+      <c r="E4">
+        <v>28.23342964653706</v>
+      </c>
+      <c r="F4">
+        <v>45.13649231531522</v>
+      </c>
+      <c r="G4">
+        <v>72.77508838800166</v>
+      </c>
+      <c r="H4">
+        <v>18.11226915194829</v>
+      </c>
+      <c r="I4">
+        <v>33.61782403910085</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>23.33595077662917</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2.368231468437483</v>
+      </c>
+      <c r="D5">
+        <v>5.158833239783961</v>
+      </c>
+      <c r="E5">
+        <v>27.54166174782467</v>
+      </c>
+      <c r="F5">
+        <v>44.07333849915977</v>
+      </c>
+      <c r="G5">
+        <v>71.05398626917663</v>
+      </c>
+      <c r="H5">
+        <v>17.68580518518957</v>
+      </c>
+      <c r="I5">
+        <v>32.82131581447329</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>2.360588430312635</v>
+      </c>
+      <c r="D6">
+        <v>5.138908054316368</v>
+      </c>
+      <c r="E6">
+        <v>27.42610466128256</v>
+      </c>
+      <c r="F6">
+        <v>43.89551565721238</v>
+      </c>
+      <c r="G6">
+        <v>70.76611617207088</v>
+      </c>
+      <c r="H6">
+        <v>17.61448713326529</v>
+      </c>
+      <c r="I6">
+        <v>32.68806288312145</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>22.90084339962192</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>2.413539884411292</v>
+      </c>
+      <c r="D7">
+        <v>5.276511217711397</v>
+      </c>
+      <c r="E7">
+        <v>28.22414545941746</v>
+      </c>
+      <c r="F7">
+        <v>45.1222396092271</v>
+      </c>
+      <c r="G7">
+        <v>72.75201506235938</v>
+      </c>
+      <c r="H7">
+        <v>18.10655113117008</v>
+      </c>
+      <c r="I7">
+        <v>33.60714791057392</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2.645593030986419</v>
+      </c>
+      <c r="D8">
+        <v>5.868147821955945</v>
+      </c>
+      <c r="E8">
+        <v>31.65716042284981</v>
+      </c>
+      <c r="F8">
+        <v>50.35937526134463</v>
+      </c>
+      <c r="G8">
+        <v>81.23097960466001</v>
+      </c>
+      <c r="H8">
+        <v>20.20906508888897</v>
+      </c>
+      <c r="I8">
+        <v>37.52711993459693</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>3.106408089656784</v>
+      </c>
+      <c r="D9">
+        <v>6.994386651727262</v>
+      </c>
+      <c r="E9">
+        <v>38.21818287826314</v>
+      </c>
+      <c r="F9">
+        <v>60.13588021167464</v>
+      </c>
+      <c r="G9">
+        <v>97.06841998306068</v>
+      </c>
+      <c r="H9">
+        <v>24.14132605558784</v>
+      </c>
+      <c r="I9">
+        <v>44.83413734886933</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>28.34722074380647</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>3.465871725429101</v>
+      </c>
+      <c r="D10">
+        <v>7.832429631932755</v>
+      </c>
+      <c r="E10">
+        <v>43.14415493072175</v>
+      </c>
+      <c r="F10">
+        <v>67.2134203096611</v>
+      </c>
+      <c r="G10">
+        <v>108.5472635897988</v>
+      </c>
+      <c r="H10">
+        <v>26.99416237229492</v>
+      </c>
+      <c r="I10">
+        <v>50.1197764571509</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>30.48602834203865</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>3.640469274137303</v>
+      </c>
+      <c r="D11">
+        <v>8.227253143895592</v>
+      </c>
+      <c r="E11">
+        <v>45.48494815187674</v>
+      </c>
+      <c r="F11">
+        <v>70.47923319369329</v>
+      </c>
+      <c r="G11">
+        <v>113.8495095226717</v>
+      </c>
+      <c r="H11">
+        <v>28.31248439697942</v>
+      </c>
+      <c r="I11">
+        <v>52.55843849364199</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>31.41016321374476</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>3.709076165167555</v>
+      </c>
+      <c r="D12">
+        <v>8.38023014894007</v>
+      </c>
+      <c r="E12">
+        <v>46.39624763137995</v>
+      </c>
+      <c r="F12">
+        <v>71.73160862891959</v>
+      </c>
+      <c r="G12">
+        <v>115.8839298630003</v>
+      </c>
+      <c r="H12">
+        <v>28.81838876180776</v>
+      </c>
+      <c r="I12">
+        <v>53.49363918311354</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>31.75299711977163</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>3.694170363035773</v>
+      </c>
+      <c r="D13">
+        <v>8.34709754312248</v>
+      </c>
+      <c r="E13">
+        <v>46.19864941684956</v>
+      </c>
+      <c r="F13">
+        <v>71.46099975767643</v>
+      </c>
+      <c r="G13">
+        <v>115.444283657942</v>
+      </c>
+      <c r="H13">
+        <v>28.70905747126163</v>
+      </c>
+      <c r="I13">
+        <v>53.29156207928585</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>31.67947945617575</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>3.64605691865453</v>
+      </c>
+      <c r="D14">
+        <v>8.239757918484047</v>
+      </c>
+      <c r="E14">
+        <v>45.55934304609423</v>
+      </c>
+      <c r="F14">
+        <v>70.58188584619577</v>
+      </c>
+      <c r="G14">
+        <v>114.0162390895407</v>
+      </c>
+      <c r="H14">
+        <v>28.35394393240821</v>
+      </c>
+      <c r="I14">
+        <v>52.63509260803502</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>31.43851144188476</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>3.616944628718797</v>
+      </c>
+      <c r="D15">
+        <v>8.174517722227899</v>
+      </c>
+      <c r="E15">
+        <v>45.17139245949456</v>
+      </c>
+      <c r="F15">
+        <v>70.04578359464979</v>
+      </c>
+      <c r="G15">
+        <v>113.145542802273</v>
+      </c>
+      <c r="H15">
+        <v>28.13743673687208</v>
+      </c>
+      <c r="I15">
+        <v>52.234768717255</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>31.28998244549472</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>3.454751650562663</v>
+      </c>
+      <c r="D16">
+        <v>7.807014650070316</v>
+      </c>
+      <c r="E16">
+        <v>42.99397941753781</v>
+      </c>
+      <c r="F16">
+        <v>67.00160799197789</v>
+      </c>
+      <c r="G16">
+        <v>108.2035076779892</v>
+      </c>
+      <c r="H16">
+        <v>26.90870353695415</v>
+      </c>
+      <c r="I16">
+        <v>49.96161003189544</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>30.42464283346099</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>3.358605752316122</v>
+      </c>
+      <c r="D17">
+        <v>7.585924484816011</v>
+      </c>
+      <c r="E17">
+        <v>41.68986829844984</v>
+      </c>
+      <c r="F17">
+        <v>65.15124734871543</v>
+      </c>
+      <c r="G17">
+        <v>105.2011453888252</v>
+      </c>
+      <c r="H17">
+        <v>26.16236732979843</v>
+      </c>
+      <c r="I17">
+        <v>48.57986418677673</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>29.88120505119274</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>3.304276457525821</v>
+      </c>
+      <c r="D18">
+        <v>7.459919985064667</v>
+      </c>
+      <c r="E18">
+        <v>40.94835250130514</v>
+      </c>
+      <c r="F18">
+        <v>64.0906128708842</v>
+      </c>
+      <c r="G18">
+        <v>103.4806689348043</v>
+      </c>
+      <c r="H18">
+        <v>25.73473785786906</v>
+      </c>
+      <c r="I18">
+        <v>47.78780839584788</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>29.5640428768043</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>3.286027285105692</v>
+      </c>
+      <c r="D19">
+        <v>7.417420550841081</v>
+      </c>
+      <c r="E19">
+        <v>40.6985143041769</v>
+      </c>
+      <c r="F19">
+        <v>63.73190929530532</v>
+      </c>
+      <c r="G19">
+        <v>102.8988851583116</v>
+      </c>
+      <c r="H19">
+        <v>25.59014277711328</v>
+      </c>
+      <c r="I19">
+        <v>47.51992997163136</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>29.45587200880252</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>3.368734918410636</v>
+      </c>
+      <c r="D20">
+        <v>7.609330928443478</v>
+      </c>
+      <c r="E20">
+        <v>41.82774476484948</v>
+      </c>
+      <c r="F20">
+        <v>65.34779077476648</v>
+      </c>
+      <c r="G20">
+        <v>105.5200005710788</v>
+      </c>
+      <c r="H20">
+        <v>26.2416239700752</v>
+      </c>
+      <c r="I20">
+        <v>48.72663486374024</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>29.93953086719064</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>3.660111984954664</v>
+      </c>
+      <c r="D21">
+        <v>8.271176411504847</v>
+      </c>
+      <c r="E21">
+        <v>45.74633675107906</v>
+      </c>
+      <c r="F21">
+        <v>70.83958441079319</v>
+      </c>
+      <c r="G21">
+        <v>114.4348149041327</v>
+      </c>
+      <c r="H21">
+        <v>28.45802961719271</v>
+      </c>
+      <c r="I21">
+        <v>52.82752521020049</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>31.50948335633599</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>3.8658736000358</v>
+      </c>
+      <c r="D22">
+        <v>8.72526916630496</v>
+      </c>
+      <c r="E22">
+        <v>48.46201065673936</v>
+      </c>
+      <c r="F22">
+        <v>74.52800396215218</v>
+      </c>
+      <c r="G22">
+        <v>120.4290313638892</v>
+      </c>
+      <c r="H22">
+        <v>29.94876753830998</v>
+      </c>
+      <c r="I22">
+        <v>55.58195683076767</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>32.49403281050594</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>3.754219212574176</v>
+      </c>
+      <c r="D23">
+        <v>8.480222700401278</v>
+      </c>
+      <c r="E23">
+        <v>46.99337207370464</v>
+      </c>
+      <c r="F23">
+        <v>72.54611748821024</v>
+      </c>
+      <c r="G23">
+        <v>117.2074180892217</v>
+      </c>
+      <c r="H23">
+        <v>29.14752489680506</v>
+      </c>
+      <c r="I23">
+        <v>54.10188288580774</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>31.97238356075506</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>3.364152635739877</v>
+      </c>
+      <c r="D24">
+        <v>7.598745541868972</v>
+      </c>
+      <c r="E24">
+        <v>41.76538587484443</v>
+      </c>
+      <c r="F24">
+        <v>65.2589242594067</v>
+      </c>
+      <c r="G24">
+        <v>105.3758296587164</v>
+      </c>
+      <c r="H24">
+        <v>26.2057877840506</v>
+      </c>
+      <c r="I24">
+        <v>48.6602730545948</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>29.91317649911919</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>2.979691243541662</v>
+      </c>
+      <c r="D25">
+        <v>6.690698693342216</v>
+      </c>
+      <c r="E25">
+        <v>36.44391869575741</v>
+      </c>
+      <c r="F25">
+        <v>57.52722404254494</v>
+      </c>
+      <c r="G25">
+        <v>92.84081974826418</v>
+      </c>
+      <c r="H25">
+        <v>23.09115263086764</v>
+      </c>
+      <c r="I25">
+        <v>42.88532319533824</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>27.51708508088412</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.708399513538657</v>
+        <v>2.291541108688389</v>
       </c>
       <c r="D2">
-        <v>6.025298232799768</v>
+        <v>4.050898842812317</v>
       </c>
       <c r="E2">
-        <v>32.57005375363718</v>
+        <v>16.70908072926618</v>
       </c>
       <c r="F2">
-        <v>51.73956695713121</v>
+        <v>31.60504126112289</v>
       </c>
       <c r="G2">
-        <v>83.4659123498958</v>
+        <v>46.55409832425982</v>
       </c>
       <c r="H2">
-        <v>20.7636246605975</v>
+        <v>15.40832056857072</v>
       </c>
       <c r="I2">
-        <v>38.55936327828417</v>
+        <v>24.58747617932364</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682374</v>
+        <v>18.99769123883711</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.526309198661771</v>
+        <v>2.242653789023274</v>
       </c>
       <c r="D3">
-        <v>5.56626117770542</v>
+        <v>3.966652200631139</v>
       </c>
       <c r="E3">
-        <v>29.90488631590555</v>
+        <v>15.73539356624581</v>
       </c>
       <c r="F3">
-        <v>47.69490680178539</v>
+        <v>30.3134804677301</v>
       </c>
       <c r="G3">
-        <v>76.91696011752639</v>
+        <v>44.04312956734825</v>
       </c>
       <c r="H3">
-        <v>19.13902625709763</v>
+        <v>15.06860057062744</v>
       </c>
       <c r="I3">
-        <v>35.53346707919891</v>
+        <v>23.73397333187833</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997339</v>
+        <v>18.40031508502701</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.41415820286552</v>
+        <v>2.211807746959753</v>
       </c>
       <c r="D4">
-        <v>5.278112018481883</v>
+        <v>3.915703165446748</v>
       </c>
       <c r="E4">
-        <v>28.23342964653706</v>
+        <v>15.11294793995385</v>
       </c>
       <c r="F4">
-        <v>45.13649231531522</v>
+        <v>29.50471783009843</v>
       </c>
       <c r="G4">
-        <v>72.77508838800166</v>
+        <v>42.44369329197139</v>
       </c>
       <c r="H4">
-        <v>18.11226915194829</v>
+        <v>14.86204866385766</v>
       </c>
       <c r="I4">
-        <v>33.61782403910085</v>
+        <v>23.20411622102332</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662917</v>
+        <v>18.02485520896362</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.368231468437483</v>
+        <v>2.199035036526418</v>
       </c>
       <c r="D5">
-        <v>5.158833239783961</v>
+        <v>3.895165308247801</v>
       </c>
       <c r="E5">
-        <v>27.54166174782467</v>
+        <v>14.85337459359302</v>
       </c>
       <c r="F5">
-        <v>44.07333849915977</v>
+        <v>29.17174623420898</v>
       </c>
       <c r="G5">
-        <v>71.05398626917663</v>
+        <v>41.77824074587323</v>
       </c>
       <c r="H5">
-        <v>17.68580518518957</v>
+        <v>14.77851342090213</v>
       </c>
       <c r="I5">
-        <v>32.82131581447329</v>
+        <v>22.98711071101861</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195408</v>
+        <v>17.86990355188116</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.360588430312635</v>
+        <v>2.196902070549409</v>
       </c>
       <c r="D6">
-        <v>5.138908054316368</v>
+        <v>3.891769386998015</v>
       </c>
       <c r="E6">
-        <v>27.42610466128256</v>
+        <v>14.80992375570737</v>
       </c>
       <c r="F6">
-        <v>43.89551565721238</v>
+        <v>29.1162691702013</v>
       </c>
       <c r="G6">
-        <v>70.76611617207088</v>
+        <v>41.66694468322564</v>
       </c>
       <c r="H6">
-        <v>17.61448713326529</v>
+        <v>14.76468452929513</v>
       </c>
       <c r="I6">
-        <v>32.68806288312145</v>
+        <v>22.95102309836007</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>22.90084339962192</v>
+        <v>17.84406337566597</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.413539884411292</v>
+        <v>2.211636302568591</v>
       </c>
       <c r="D7">
-        <v>5.276511217711397</v>
+        <v>3.915425239108351</v>
       </c>
       <c r="E7">
-        <v>28.22414545941746</v>
+        <v>15.10947083176046</v>
       </c>
       <c r="F7">
-        <v>45.1222396092271</v>
+        <v>29.50024021401694</v>
       </c>
       <c r="G7">
-        <v>72.75201506235938</v>
+        <v>42.4347728965714</v>
       </c>
       <c r="H7">
-        <v>18.10655113117008</v>
+        <v>14.86091933738302</v>
       </c>
       <c r="I7">
-        <v>33.60714791057392</v>
+        <v>23.20119348434856</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062624</v>
+        <v>18.02277304766463</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.645593030986419</v>
+        <v>2.274860173089194</v>
       </c>
       <c r="D8">
-        <v>5.868147821955945</v>
+        <v>4.021706081111173</v>
       </c>
       <c r="E8">
-        <v>31.65716042284981</v>
+        <v>16.37860076599894</v>
       </c>
       <c r="F8">
-        <v>50.35937526134463</v>
+        <v>31.16329760214364</v>
       </c>
       <c r="G8">
-        <v>81.23097960466001</v>
+        <v>45.70074826798113</v>
       </c>
       <c r="H8">
-        <v>20.20906508888897</v>
+        <v>15.29083622336184</v>
       </c>
       <c r="I8">
-        <v>37.52711993459693</v>
+        <v>24.29460900471237</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>25.1395913014106</v>
+        <v>18.79364780656866</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.106408089656784</v>
+        <v>2.392031015747773</v>
       </c>
       <c r="D9">
-        <v>6.994386651727262</v>
+        <v>4.235053467491193</v>
       </c>
       <c r="E9">
-        <v>38.21818287826314</v>
+        <v>18.82411019586357</v>
       </c>
       <c r="F9">
-        <v>60.13588021167464</v>
+        <v>34.27788795284263</v>
       </c>
       <c r="G9">
-        <v>97.06841998306068</v>
+        <v>51.61769986820902</v>
       </c>
       <c r="H9">
-        <v>24.14132605558784</v>
+        <v>16.14471258504169</v>
       </c>
       <c r="I9">
-        <v>44.83413734886933</v>
+        <v>26.37774005021591</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380647</v>
+        <v>20.2273683202997</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.465871725429101</v>
+        <v>2.473682401355542</v>
       </c>
       <c r="D10">
-        <v>7.832429631932755</v>
+        <v>4.393165847162185</v>
       </c>
       <c r="E10">
-        <v>43.14415493072175</v>
+        <v>20.53581442695382</v>
       </c>
       <c r="F10">
-        <v>67.2134203096611</v>
+        <v>36.4516128695236</v>
       </c>
       <c r="G10">
-        <v>108.5472635897988</v>
+        <v>55.6358714946854</v>
       </c>
       <c r="H10">
-        <v>26.99416237229492</v>
+        <v>16.77170479421687</v>
       </c>
       <c r="I10">
-        <v>50.1197764571509</v>
+        <v>27.85301576224247</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203865</v>
+        <v>21.22223697909767</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.640469274137303</v>
+        <v>2.509813349873522</v>
       </c>
       <c r="D11">
-        <v>8.227253143895592</v>
+        <v>4.465060646647207</v>
       </c>
       <c r="E11">
-        <v>45.48494815187674</v>
+        <v>21.2729129993351</v>
       </c>
       <c r="F11">
-        <v>70.47923319369329</v>
+        <v>37.41136784536977</v>
       </c>
       <c r="G11">
-        <v>113.8495095226717</v>
+        <v>57.38764912677016</v>
       </c>
       <c r="H11">
-        <v>28.31248439697942</v>
+        <v>17.05548680334735</v>
       </c>
       <c r="I11">
-        <v>52.55843849364199</v>
+        <v>28.50897267896941</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374476</v>
+        <v>21.66018057919901</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.709076165167555</v>
+        <v>2.523345721851969</v>
       </c>
       <c r="D12">
-        <v>8.38023014894007</v>
+        <v>4.492254776971405</v>
       </c>
       <c r="E12">
-        <v>46.39624763137995</v>
+        <v>21.54610482686304</v>
       </c>
       <c r="F12">
-        <v>71.73160862891959</v>
+        <v>37.77032924410633</v>
       </c>
       <c r="G12">
-        <v>115.8839298630003</v>
+        <v>58.03976241435712</v>
       </c>
       <c r="H12">
-        <v>28.81838876180776</v>
+        <v>17.16263380323386</v>
       </c>
       <c r="I12">
-        <v>53.49363918311354</v>
+        <v>28.75496003551665</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>31.75299711977163</v>
+        <v>21.82377585682186</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.694170363035773</v>
+        <v>2.520437998086978</v>
       </c>
       <c r="D13">
-        <v>8.34709754312248</v>
+        <v>4.486399811963222</v>
       </c>
       <c r="E13">
-        <v>46.19864941684956</v>
+        <v>21.48753115452632</v>
       </c>
       <c r="F13">
-        <v>71.46099975767643</v>
+        <v>37.69322384252373</v>
       </c>
       <c r="G13">
-        <v>115.444283657942</v>
+        <v>57.89982250672377</v>
       </c>
       <c r="H13">
-        <v>28.70905747126163</v>
+        <v>17.13957344167379</v>
       </c>
       <c r="I13">
-        <v>53.29156207928585</v>
+        <v>28.70209278663542</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617575</v>
+        <v>21.78864458690801</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.64605691865453</v>
+        <v>2.510929686690126</v>
       </c>
       <c r="D14">
-        <v>8.239757918484047</v>
+        <v>4.467298688734616</v>
       </c>
       <c r="E14">
-        <v>45.55934304609423</v>
+        <v>21.2955072684879</v>
       </c>
       <c r="F14">
-        <v>70.58188584619577</v>
+        <v>37.44099107847981</v>
       </c>
       <c r="G14">
-        <v>114.0162390895407</v>
+        <v>57.44152579165135</v>
       </c>
       <c r="H14">
-        <v>28.35394393240821</v>
+        <v>17.0643087612632</v>
       </c>
       <c r="I14">
-        <v>52.63509260803502</v>
+        <v>28.52925971419292</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>31.43851144188476</v>
+        <v>21.67368539489659</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.616944628718797</v>
+        <v>2.505085972457943</v>
       </c>
       <c r="D15">
-        <v>8.174517722227899</v>
+        <v>4.455593920829401</v>
       </c>
       <c r="E15">
-        <v>45.17139245949456</v>
+        <v>21.17711600208215</v>
       </c>
       <c r="F15">
-        <v>70.04578359464979</v>
+        <v>37.28590017163895</v>
       </c>
       <c r="G15">
-        <v>113.145542802273</v>
+        <v>57.15933325238638</v>
       </c>
       <c r="H15">
-        <v>28.13743673687208</v>
+        <v>17.01816284569774</v>
       </c>
       <c r="I15">
-        <v>52.234768717255</v>
+        <v>28.42307434073396</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549472</v>
+        <v>21.60297336126124</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.454751650562663</v>
+        <v>2.471300429075009</v>
       </c>
       <c r="D16">
-        <v>7.807014650070316</v>
+        <v>4.388464436848404</v>
       </c>
       <c r="E16">
-        <v>42.99397941753781</v>
+        <v>20.48681080823547</v>
       </c>
       <c r="F16">
-        <v>67.00160799197789</v>
+        <v>36.38827920269986</v>
       </c>
       <c r="G16">
-        <v>108.2035076779892</v>
+        <v>55.51982985930501</v>
       </c>
       <c r="H16">
-        <v>26.90870353695415</v>
+        <v>16.75312061138612</v>
       </c>
       <c r="I16">
-        <v>49.96161003189544</v>
+        <v>27.80982219642646</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.42464283346099</v>
+        <v>21.19330956972086</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.358605752316122</v>
+        <v>2.450311739149582</v>
       </c>
       <c r="D17">
-        <v>7.585924484816011</v>
+        <v>4.347255452497016</v>
       </c>
       <c r="E17">
-        <v>41.68986829844984</v>
+        <v>20.05271765595111</v>
       </c>
       <c r="F17">
-        <v>65.15124734871543</v>
+        <v>35.82994522078612</v>
       </c>
       <c r="G17">
-        <v>105.2011453888252</v>
+        <v>54.49431812167074</v>
       </c>
       <c r="H17">
-        <v>26.16236732979843</v>
+        <v>16.59007803468783</v>
       </c>
       <c r="I17">
-        <v>48.57986418677673</v>
+        <v>27.42955806999067</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>29.88120505119274</v>
+        <v>20.93814219015166</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.304276457525821</v>
+        <v>2.438144496188168</v>
       </c>
       <c r="D18">
-        <v>7.459919985064667</v>
+        <v>4.323551681054679</v>
       </c>
       <c r="E18">
-        <v>40.94835250130514</v>
+        <v>19.79912380347964</v>
       </c>
       <c r="F18">
-        <v>64.0906128708842</v>
+        <v>35.5060835398215</v>
       </c>
       <c r="G18">
-        <v>103.4806689348043</v>
+        <v>53.89732073470162</v>
       </c>
       <c r="H18">
-        <v>25.73473785786906</v>
+        <v>16.49617078439743</v>
       </c>
       <c r="I18">
-        <v>47.78780839584788</v>
+        <v>27.20942584592137</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.5640428768043</v>
+        <v>20.79000725568362</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.286027285105692</v>
+        <v>2.434008671566446</v>
       </c>
       <c r="D19">
-        <v>7.417420550841081</v>
+        <v>4.315526567921878</v>
       </c>
       <c r="E19">
-        <v>40.6985143041769</v>
+        <v>19.71258750246551</v>
       </c>
       <c r="F19">
-        <v>63.73190929530532</v>
+        <v>35.39597160121749</v>
       </c>
       <c r="G19">
-        <v>102.8988851583116</v>
+        <v>53.69396992151733</v>
       </c>
       <c r="H19">
-        <v>25.59014277711328</v>
+        <v>16.46435656607968</v>
       </c>
       <c r="I19">
-        <v>47.51992997163136</v>
+        <v>27.13465741008431</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>29.45587200880252</v>
+        <v>20.73962067985785</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.368734918410636</v>
+        <v>2.452555894226304</v>
       </c>
       <c r="D20">
-        <v>7.609330928443478</v>
+        <v>4.351642565151272</v>
       </c>
       <c r="E20">
-        <v>41.82774476484948</v>
+        <v>20.09933246648837</v>
       </c>
       <c r="F20">
-        <v>65.34779077476648</v>
+        <v>35.88966489208477</v>
       </c>
       <c r="G20">
-        <v>105.5200005710788</v>
+        <v>54.60422800683271</v>
       </c>
       <c r="H20">
-        <v>26.2416239700752</v>
+        <v>16.60744839901975</v>
       </c>
       <c r="I20">
-        <v>48.72663486374024</v>
+        <v>27.47018597133863</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>29.93953086719064</v>
+        <v>20.96544799483449</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.660111984954664</v>
+        <v>2.513726599247696</v>
       </c>
       <c r="D21">
-        <v>8.271176411504847</v>
+        <v>4.472910192488118</v>
       </c>
       <c r="E21">
-        <v>45.74633675107906</v>
+        <v>21.35206995216972</v>
       </c>
       <c r="F21">
-        <v>70.83958441079319</v>
+        <v>37.51520159805676</v>
       </c>
       <c r="G21">
-        <v>114.4348149041327</v>
+        <v>57.57644598078067</v>
       </c>
       <c r="H21">
-        <v>28.45802961719271</v>
+        <v>17.08642520133454</v>
       </c>
       <c r="I21">
-        <v>52.82752521020049</v>
+        <v>28.58009206386674</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633599</v>
+        <v>21.70751365554064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.8658736000358</v>
+        <v>2.552831431934818</v>
       </c>
       <c r="D22">
-        <v>8.72526916630496</v>
+        <v>4.557067552216613</v>
       </c>
       <c r="E22">
-        <v>48.46201065673936</v>
+        <v>22.13625475371152</v>
       </c>
       <c r="F22">
-        <v>74.52800396215218</v>
+        <v>38.55138096152353</v>
       </c>
       <c r="G22">
-        <v>120.4290313638892</v>
+        <v>59.45330909550263</v>
       </c>
       <c r="H22">
-        <v>29.94876753830998</v>
+        <v>17.39758237128472</v>
       </c>
       <c r="I22">
-        <v>55.58195683076767</v>
+        <v>29.29134882595776</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050594</v>
+        <v>22.17935961385674</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.754219212574176</v>
+        <v>2.532041617467994</v>
       </c>
       <c r="D23">
-        <v>8.480222700401278</v>
+        <v>4.509802200768107</v>
       </c>
       <c r="E23">
-        <v>46.99337207370464</v>
+        <v>21.72086697686762</v>
       </c>
       <c r="F23">
-        <v>72.54611748821024</v>
+        <v>38.00083668319122</v>
       </c>
       <c r="G23">
-        <v>117.2074180892217</v>
+        <v>58.45768323017286</v>
       </c>
       <c r="H23">
-        <v>29.14752489680506</v>
+        <v>17.23171805887528</v>
       </c>
       <c r="I23">
-        <v>54.10188288580774</v>
+        <v>28.91309976745497</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075506</v>
+        <v>21.92877110911181</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.364152635739877</v>
+        <v>2.451541624646266</v>
       </c>
       <c r="D24">
-        <v>7.598745541868972</v>
+        <v>4.349659187433638</v>
       </c>
       <c r="E24">
-        <v>41.76538587484443</v>
+        <v>20.07827046014655</v>
       </c>
       <c r="F24">
-        <v>65.2589242594067</v>
+        <v>35.8626745391651</v>
       </c>
       <c r="G24">
-        <v>105.3758296587164</v>
+        <v>54.5545608265352</v>
       </c>
       <c r="H24">
-        <v>26.2057877840506</v>
+        <v>16.59959578446747</v>
       </c>
       <c r="I24">
-        <v>48.6602730545948</v>
+        <v>27.45182279300356</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>29.91317649911919</v>
+        <v>20.95310750188673</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.979691243541662</v>
+        <v>2.361092962591343</v>
       </c>
       <c r="D25">
-        <v>6.690698693342216</v>
+        <v>4.176981437835304</v>
       </c>
       <c r="E25">
-        <v>36.44391869575741</v>
+        <v>18.15660052169967</v>
       </c>
       <c r="F25">
-        <v>57.52722404254494</v>
+        <v>33.45381830685568</v>
       </c>
       <c r="G25">
-        <v>92.84081974826418</v>
+        <v>50.07289128336305</v>
       </c>
       <c r="H25">
-        <v>23.09115263086764</v>
+        <v>15.91329210517361</v>
       </c>
       <c r="I25">
-        <v>42.88532319533824</v>
+        <v>25.82270765140368</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088412</v>
+        <v>19.84905939529497</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.291541108688389</v>
+        <v>2.70839951353856</v>
       </c>
       <c r="D2">
-        <v>4.050898842812317</v>
+        <v>6.025298232799822</v>
       </c>
       <c r="E2">
-        <v>16.70908072926618</v>
+        <v>32.57005375363723</v>
       </c>
       <c r="F2">
-        <v>31.60504126112289</v>
+        <v>51.73956695713127</v>
       </c>
       <c r="G2">
-        <v>46.55409832425982</v>
+        <v>83.46591234989599</v>
       </c>
       <c r="H2">
-        <v>15.40832056857072</v>
+        <v>20.76362466059751</v>
       </c>
       <c r="I2">
-        <v>24.58747617932364</v>
+        <v>38.55936327828424</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.99769123883711</v>
+        <v>25.60720851682377</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.242653789023274</v>
+        <v>2.526309198661683</v>
       </c>
       <c r="D3">
-        <v>3.966652200631139</v>
+        <v>5.56626117770547</v>
       </c>
       <c r="E3">
-        <v>15.73539356624581</v>
+        <v>29.90488631590565</v>
       </c>
       <c r="F3">
-        <v>30.3134804677301</v>
+        <v>47.69490680178532</v>
       </c>
       <c r="G3">
-        <v>44.04312956734825</v>
+        <v>76.91696011752626</v>
       </c>
       <c r="H3">
-        <v>15.06860057062744</v>
+        <v>19.1390262570976</v>
       </c>
       <c r="I3">
-        <v>23.73397333187833</v>
+        <v>35.53346707919886</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40031508502701</v>
+        <v>24.22561817997341</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.211807746959753</v>
+        <v>2.414158202865885</v>
       </c>
       <c r="D4">
-        <v>3.915703165446748</v>
+        <v>5.278112018481925</v>
       </c>
       <c r="E4">
-        <v>15.11294793995385</v>
+        <v>28.23342964653714</v>
       </c>
       <c r="F4">
-        <v>29.50471783009843</v>
+        <v>45.13649231531533</v>
       </c>
       <c r="G4">
-        <v>42.44369329197139</v>
+        <v>72.77508838800181</v>
       </c>
       <c r="H4">
-        <v>14.86204866385766</v>
+        <v>18.11226915194836</v>
       </c>
       <c r="I4">
-        <v>23.20411622102332</v>
+        <v>33.61782403910091</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.02485520896362</v>
+        <v>23.33595077662918</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.199035036526418</v>
+        <v>2.368231468437592</v>
       </c>
       <c r="D5">
-        <v>3.895165308247801</v>
+        <v>5.158833239783894</v>
       </c>
       <c r="E5">
-        <v>14.85337459359302</v>
+        <v>27.54166174782462</v>
       </c>
       <c r="F5">
-        <v>29.17174623420898</v>
+        <v>44.07333849915982</v>
       </c>
       <c r="G5">
-        <v>41.77824074587323</v>
+        <v>71.05398626917669</v>
       </c>
       <c r="H5">
-        <v>14.77851342090213</v>
+        <v>17.68580518518959</v>
       </c>
       <c r="I5">
-        <v>22.98711071101861</v>
+        <v>32.82131581447331</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>17.86990355188116</v>
+        <v>22.96331756195407</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.196902070549409</v>
+        <v>2.360588430312486</v>
       </c>
       <c r="D6">
-        <v>3.891769386998015</v>
+        <v>5.138908054316274</v>
       </c>
       <c r="E6">
-        <v>14.80992375570737</v>
+        <v>27.42610466128259</v>
       </c>
       <c r="F6">
-        <v>29.1162691702013</v>
+        <v>43.89551565721223</v>
       </c>
       <c r="G6">
-        <v>41.66694468322564</v>
+        <v>70.76611617207064</v>
       </c>
       <c r="H6">
-        <v>14.76468452929513</v>
+        <v>17.61448713326523</v>
       </c>
       <c r="I6">
-        <v>22.95102309836007</v>
+        <v>32.68806288312134</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>17.84406337566597</v>
+        <v>22.90084339962192</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.211636302568591</v>
+        <v>2.413539884411065</v>
       </c>
       <c r="D7">
-        <v>3.915425239108351</v>
+        <v>5.27651121771139</v>
       </c>
       <c r="E7">
-        <v>15.10947083176046</v>
+        <v>28.22414545941755</v>
       </c>
       <c r="F7">
-        <v>29.50024021401694</v>
+        <v>45.12223960922709</v>
       </c>
       <c r="G7">
-        <v>42.4347728965714</v>
+        <v>72.75201506235936</v>
       </c>
       <c r="H7">
-        <v>14.86091933738302</v>
+        <v>18.10655113117008</v>
       </c>
       <c r="I7">
-        <v>23.20119348434856</v>
+        <v>33.60714791057393</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.02277304766463</v>
+        <v>23.33096569062625</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.274860173089194</v>
+        <v>2.645593030986635</v>
       </c>
       <c r="D8">
-        <v>4.021706081111173</v>
+        <v>5.868147821955944</v>
       </c>
       <c r="E8">
-        <v>16.37860076599894</v>
+        <v>31.65716042284985</v>
       </c>
       <c r="F8">
-        <v>31.16329760214364</v>
+        <v>50.3593752613446</v>
       </c>
       <c r="G8">
-        <v>45.70074826798113</v>
+        <v>81.23097960465994</v>
       </c>
       <c r="H8">
-        <v>15.29083622336184</v>
+        <v>20.20906508888895</v>
       </c>
       <c r="I8">
-        <v>24.29460900471237</v>
+        <v>37.52711993459689</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.79364780656866</v>
+        <v>25.1395913014106</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>2.392031015747773</v>
+        <v>3.106408089656794</v>
       </c>
       <c r="D9">
-        <v>4.235053467491193</v>
+        <v>6.994386651727328</v>
       </c>
       <c r="E9">
-        <v>18.82411019586357</v>
+        <v>38.21818287826305</v>
       </c>
       <c r="F9">
-        <v>34.27788795284263</v>
+        <v>60.13588021167444</v>
       </c>
       <c r="G9">
-        <v>51.61769986820902</v>
+        <v>97.06841998306051</v>
       </c>
       <c r="H9">
-        <v>16.14471258504169</v>
+        <v>24.14132605558775</v>
       </c>
       <c r="I9">
-        <v>26.37774005021591</v>
+        <v>44.83413734886921</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.2273683202997</v>
+        <v>28.34722074380646</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>2.473682401355542</v>
+        <v>3.465871725429082</v>
       </c>
       <c r="D10">
-        <v>4.393165847162185</v>
+        <v>7.832429631932671</v>
       </c>
       <c r="E10">
-        <v>20.53581442695382</v>
+        <v>43.1441549307216</v>
       </c>
       <c r="F10">
-        <v>36.4516128695236</v>
+        <v>67.21342030966061</v>
       </c>
       <c r="G10">
-        <v>55.6358714946854</v>
+        <v>108.547263589798</v>
       </c>
       <c r="H10">
-        <v>16.77170479421687</v>
+        <v>26.99416237229475</v>
       </c>
       <c r="I10">
-        <v>27.85301576224247</v>
+        <v>50.11977645715052</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>21.22223697909767</v>
+        <v>30.48602834203862</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>2.509813349873522</v>
+        <v>3.640469274137285</v>
       </c>
       <c r="D11">
-        <v>4.465060646647207</v>
+        <v>8.227253143895599</v>
       </c>
       <c r="E11">
-        <v>21.2729129993351</v>
+        <v>45.48494815187657</v>
       </c>
       <c r="F11">
-        <v>37.41136784536977</v>
+        <v>70.47923319369306</v>
       </c>
       <c r="G11">
-        <v>57.38764912677016</v>
+        <v>113.8495095226714</v>
       </c>
       <c r="H11">
-        <v>17.05548680334735</v>
+        <v>28.31248439697936</v>
       </c>
       <c r="I11">
-        <v>28.50897267896941</v>
+        <v>52.55843849364184</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>21.66018057919901</v>
+        <v>31.41016321374474</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>2.523345721851969</v>
+        <v>3.709076165167583</v>
       </c>
       <c r="D12">
-        <v>4.492254776971405</v>
+        <v>8.380230148940072</v>
       </c>
       <c r="E12">
-        <v>21.54610482686304</v>
+        <v>46.39624763137974</v>
       </c>
       <c r="F12">
-        <v>37.77032924410633</v>
+        <v>71.7316086289194</v>
       </c>
       <c r="G12">
-        <v>58.03976241435712</v>
+        <v>115.8839298630001</v>
       </c>
       <c r="H12">
-        <v>17.16263380323386</v>
+        <v>28.81838876180768</v>
       </c>
       <c r="I12">
-        <v>28.75496003551665</v>
+        <v>53.49363918311336</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>21.82377585682186</v>
+        <v>31.75299711977163</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>2.520437998086978</v>
+        <v>3.694170363035783</v>
       </c>
       <c r="D13">
-        <v>4.486399811963222</v>
+        <v>8.347097543122514</v>
       </c>
       <c r="E13">
-        <v>21.48753115452632</v>
+        <v>46.19864941684942</v>
       </c>
       <c r="F13">
-        <v>37.69322384252373</v>
+        <v>71.46099975767642</v>
       </c>
       <c r="G13">
-        <v>57.89982250672377</v>
+        <v>115.444283657942</v>
       </c>
       <c r="H13">
-        <v>17.13957344167379</v>
+        <v>28.70905747126162</v>
       </c>
       <c r="I13">
-        <v>28.70209278663542</v>
+        <v>53.29156207928584</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>21.78864458690801</v>
+        <v>31.67947945617576</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2.510929686690126</v>
+        <v>3.646056918654764</v>
       </c>
       <c r="D14">
-        <v>4.467298688734616</v>
+        <v>8.239757918483891</v>
       </c>
       <c r="E14">
-        <v>21.2955072684879</v>
+        <v>45.55934304609421</v>
       </c>
       <c r="F14">
-        <v>37.44099107847981</v>
+        <v>70.58188584619558</v>
       </c>
       <c r="G14">
-        <v>57.44152579165135</v>
+        <v>114.0162390895403</v>
       </c>
       <c r="H14">
-        <v>17.0643087612632</v>
+        <v>28.3539439324081</v>
       </c>
       <c r="I14">
-        <v>28.52925971419292</v>
+        <v>52.6350926080348</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>21.67368539489659</v>
+        <v>31.43851144188476</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>2.505085972457943</v>
+        <v>3.616944628718787</v>
       </c>
       <c r="D15">
-        <v>4.455593920829401</v>
+        <v>8.174517722227922</v>
       </c>
       <c r="E15">
-        <v>21.17711600208215</v>
+        <v>45.17139245949436</v>
       </c>
       <c r="F15">
-        <v>37.28590017163895</v>
+        <v>70.04578359464945</v>
       </c>
       <c r="G15">
-        <v>57.15933325238638</v>
+        <v>113.1455428022724</v>
       </c>
       <c r="H15">
-        <v>17.01816284569774</v>
+        <v>28.13743673687191</v>
       </c>
       <c r="I15">
-        <v>28.42307434073396</v>
+        <v>52.23476871725477</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>21.60297336126124</v>
+        <v>31.28998244549475</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>2.471300429075009</v>
+        <v>3.454751650562792</v>
       </c>
       <c r="D16">
-        <v>4.388464436848404</v>
+        <v>7.807014650070546</v>
       </c>
       <c r="E16">
-        <v>20.48681080823547</v>
+        <v>42.99397941753779</v>
       </c>
       <c r="F16">
-        <v>36.38827920269986</v>
+        <v>67.00160799197808</v>
       </c>
       <c r="G16">
-        <v>55.51982985930501</v>
+        <v>108.2035076779895</v>
       </c>
       <c r="H16">
-        <v>16.75312061138612</v>
+        <v>26.90870353695423</v>
       </c>
       <c r="I16">
-        <v>27.80982219642646</v>
+        <v>49.9616100318956</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>21.19330956972086</v>
+        <v>30.424642833461</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2.450311739149582</v>
+        <v>3.358605752316132</v>
       </c>
       <c r="D17">
-        <v>4.347255452497016</v>
+        <v>7.585924484816029</v>
       </c>
       <c r="E17">
-        <v>20.05271765595111</v>
+        <v>41.68986829844989</v>
       </c>
       <c r="F17">
-        <v>35.82994522078612</v>
+        <v>65.15124734871547</v>
       </c>
       <c r="G17">
-        <v>54.49431812167074</v>
+        <v>105.2011453888255</v>
       </c>
       <c r="H17">
-        <v>16.59007803468783</v>
+        <v>26.16236732979843</v>
       </c>
       <c r="I17">
-        <v>27.42955806999067</v>
+        <v>48.5798641867768</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.93814219015166</v>
+        <v>29.88120505119274</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2.438144496188168</v>
+        <v>3.304276457525711</v>
       </c>
       <c r="D18">
-        <v>4.323551681054679</v>
+        <v>7.45991998506466</v>
       </c>
       <c r="E18">
-        <v>19.79912380347964</v>
+        <v>40.94835250130514</v>
       </c>
       <c r="F18">
-        <v>35.5060835398215</v>
+        <v>64.0906128708842</v>
       </c>
       <c r="G18">
-        <v>53.89732073470162</v>
+        <v>103.4806689348044</v>
       </c>
       <c r="H18">
-        <v>16.49617078439743</v>
+        <v>25.7347378578691</v>
       </c>
       <c r="I18">
-        <v>27.20942584592137</v>
+        <v>47.78780839584792</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.79000725568362</v>
+        <v>29.56404287680426</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2.434008671566446</v>
+        <v>3.286027285105812</v>
       </c>
       <c r="D19">
-        <v>4.315526567921878</v>
+        <v>7.417420550841237</v>
       </c>
       <c r="E19">
-        <v>19.71258750246551</v>
+        <v>40.69851430417697</v>
       </c>
       <c r="F19">
-        <v>35.39597160121749</v>
+        <v>63.73190929530563</v>
       </c>
       <c r="G19">
-        <v>53.69396992151733</v>
+        <v>102.8988851583122</v>
       </c>
       <c r="H19">
-        <v>16.46435656607968</v>
+        <v>25.59014277711345</v>
       </c>
       <c r="I19">
-        <v>27.13465741008431</v>
+        <v>47.51992997163165</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.73962067985785</v>
+        <v>29.45587200880252</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2.452555894226304</v>
+        <v>3.368734918410736</v>
       </c>
       <c r="D20">
-        <v>4.351642565151272</v>
+        <v>7.609330928443517</v>
       </c>
       <c r="E20">
-        <v>20.09933246648837</v>
+        <v>41.82774476484942</v>
       </c>
       <c r="F20">
-        <v>35.88966489208477</v>
+        <v>65.34779077476639</v>
       </c>
       <c r="G20">
-        <v>54.60422800683271</v>
+        <v>105.5200005710786</v>
       </c>
       <c r="H20">
-        <v>16.60744839901975</v>
+        <v>26.24162397007521</v>
       </c>
       <c r="I20">
-        <v>27.47018597133863</v>
+        <v>48.72663486374017</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.96544799483449</v>
+        <v>29.93953086719064</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2.513726599247696</v>
+        <v>3.660111984954777</v>
       </c>
       <c r="D21">
-        <v>4.472910192488118</v>
+        <v>8.271176411504836</v>
       </c>
       <c r="E21">
-        <v>21.35206995216972</v>
+        <v>45.74633675107917</v>
       </c>
       <c r="F21">
-        <v>37.51520159805676</v>
+        <v>70.83958441079325</v>
       </c>
       <c r="G21">
-        <v>57.57644598078067</v>
+        <v>114.4348149041327</v>
       </c>
       <c r="H21">
-        <v>17.08642520133454</v>
+        <v>28.45802961719273</v>
       </c>
       <c r="I21">
-        <v>28.58009206386674</v>
+        <v>52.82752521020053</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>21.70751365554064</v>
+        <v>31.50948335633597</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2.552831431934818</v>
+        <v>3.865873600035783</v>
       </c>
       <c r="D22">
-        <v>4.557067552216613</v>
+        <v>8.725269166305136</v>
       </c>
       <c r="E22">
-        <v>22.13625475371152</v>
+        <v>48.46201065673949</v>
       </c>
       <c r="F22">
-        <v>38.55138096152353</v>
+        <v>74.52800396215271</v>
       </c>
       <c r="G22">
-        <v>59.45330909550263</v>
+        <v>120.4290313638901</v>
       </c>
       <c r="H22">
-        <v>17.39758237128472</v>
+        <v>29.94876753831021</v>
       </c>
       <c r="I22">
-        <v>29.29134882595776</v>
+        <v>55.58195683076811</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>22.17935961385674</v>
+        <v>32.49403281050591</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2.532041617467994</v>
+        <v>3.754219212574159</v>
       </c>
       <c r="D23">
-        <v>4.509802200768107</v>
+        <v>8.480222700401265</v>
       </c>
       <c r="E23">
-        <v>21.72086697686762</v>
+        <v>46.99337207370456</v>
       </c>
       <c r="F23">
-        <v>38.00083668319122</v>
+        <v>72.54611748821004</v>
       </c>
       <c r="G23">
-        <v>58.45768323017286</v>
+        <v>117.2074180892213</v>
       </c>
       <c r="H23">
-        <v>17.23171805887528</v>
+        <v>29.14752489680498</v>
       </c>
       <c r="I23">
-        <v>28.91309976745497</v>
+        <v>54.1018828858076</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>21.92877110911181</v>
+        <v>31.97238356075504</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2.451541624646266</v>
+        <v>3.364152635739839</v>
       </c>
       <c r="D24">
-        <v>4.349659187433638</v>
+        <v>7.598745541868903</v>
       </c>
       <c r="E24">
-        <v>20.07827046014655</v>
+        <v>41.76538587484423</v>
       </c>
       <c r="F24">
-        <v>35.8626745391651</v>
+        <v>65.2589242594064</v>
       </c>
       <c r="G24">
-        <v>54.5545608265352</v>
+        <v>105.375829658716</v>
       </c>
       <c r="H24">
-        <v>16.59959578446747</v>
+        <v>26.20578778405049</v>
       </c>
       <c r="I24">
-        <v>27.45182279300356</v>
+        <v>48.66027305459457</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.95310750188673</v>
+        <v>29.91317649911916</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.361092962591343</v>
+        <v>2.979691243541672</v>
       </c>
       <c r="D25">
-        <v>4.176981437835304</v>
+        <v>6.69069869334223</v>
       </c>
       <c r="E25">
-        <v>18.15660052169967</v>
+        <v>36.4439186957575</v>
       </c>
       <c r="F25">
-        <v>33.45381830685568</v>
+        <v>57.52722404254519</v>
       </c>
       <c r="G25">
-        <v>50.07289128336305</v>
+        <v>92.84081974826447</v>
       </c>
       <c r="H25">
-        <v>15.91329210517361</v>
+        <v>23.09115263086775</v>
       </c>
       <c r="I25">
-        <v>25.82270765140368</v>
+        <v>42.88532319533839</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.84905939529497</v>
+        <v>27.51708508088412</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,31 +430,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>2.70839951353856</v>
+        <v>9.265478549016693</v>
       </c>
       <c r="D2">
-        <v>6.025298232799822</v>
+        <v>6.323915762868054</v>
       </c>
       <c r="E2">
-        <v>32.57005375363723</v>
+        <v>12.09639915018565</v>
       </c>
       <c r="F2">
-        <v>51.73956695713127</v>
+        <v>48.81294783194205</v>
       </c>
       <c r="G2">
-        <v>83.46591234989599</v>
+        <v>77.7327752381315</v>
       </c>
       <c r="H2">
-        <v>20.76362466059751</v>
+        <v>3.267048580782637</v>
       </c>
       <c r="I2">
-        <v>38.55936327828424</v>
+        <v>4.495259252082294</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>20.35774902796469</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>38.78639100763952</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,13 +463,19 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>25.60720851682377</v>
+        <v>8.099530740873245</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>25.60720851682374</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,31 +483,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2.526309198661683</v>
+        <v>8.843984840840996</v>
       </c>
       <c r="D3">
-        <v>5.56626117770547</v>
+        <v>6.052566375396233</v>
       </c>
       <c r="E3">
-        <v>29.90488631590565</v>
+        <v>11.52306752992278</v>
       </c>
       <c r="F3">
-        <v>47.69490680178532</v>
+        <v>45.84294354829898</v>
       </c>
       <c r="G3">
-        <v>76.91696011752626</v>
+        <v>72.78146236255994</v>
       </c>
       <c r="H3">
-        <v>19.1390262570976</v>
+        <v>2.866693837918612</v>
       </c>
       <c r="I3">
-        <v>35.53346707919886</v>
+        <v>4.111645236163951</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>19.28558782484251</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>36.57622993839981</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,13 +516,19 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>24.22561817997341</v>
+        <v>7.777307753546993</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>24.22561817997339</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,31 +536,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2.414158202865885</v>
+        <v>8.576603183129896</v>
       </c>
       <c r="D4">
-        <v>5.278112018481925</v>
+        <v>5.878358526799434</v>
       </c>
       <c r="E4">
-        <v>28.23342964653714</v>
+        <v>11.15757997270539</v>
       </c>
       <c r="F4">
-        <v>45.13649231531533</v>
+        <v>43.9327495609207</v>
       </c>
       <c r="G4">
-        <v>72.77508838800181</v>
+        <v>69.58478828257059</v>
       </c>
       <c r="H4">
-        <v>18.11226915194836</v>
+        <v>2.614169682027283</v>
       </c>
       <c r="I4">
-        <v>33.61782403910091</v>
+        <v>3.870212296893875</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>18.60104532218777</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>35.15606370347238</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,13 +569,19 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>23.33595077662918</v>
+        <v>7.573411228495347</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>23.33595077662917</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,31 +589,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.368231468437592</v>
+        <v>8.460152823248713</v>
       </c>
       <c r="D5">
-        <v>5.158833239783894</v>
+        <v>5.801523356680591</v>
       </c>
       <c r="E5">
-        <v>27.54166174782462</v>
+        <v>11.00161129090456</v>
       </c>
       <c r="F5">
-        <v>44.07333849915982</v>
+        <v>43.11289086400062</v>
       </c>
       <c r="G5">
-        <v>71.05398626917669</v>
+        <v>68.20749617309542</v>
       </c>
       <c r="H5">
-        <v>17.68580518518959</v>
+        <v>2.508464682036819</v>
       </c>
       <c r="I5">
-        <v>32.82131581447331</v>
+        <v>3.769516569311707</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>18.30765857746523</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>34.5424754071097</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,13 +622,19 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>22.96331756195407</v>
+        <v>7.488932654744825</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,31 +642,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>2.360588430312486</v>
+        <v>8.434267156667163</v>
       </c>
       <c r="D6">
-        <v>5.138908054316274</v>
+        <v>5.783796645801629</v>
       </c>
       <c r="E6">
-        <v>27.42610466128259</v>
+        <v>10.97105756318891</v>
       </c>
       <c r="F6">
-        <v>43.89551565721223</v>
+        <v>42.95111236096624</v>
       </c>
       <c r="G6">
-        <v>70.76611617207064</v>
+        <v>67.93313822039964</v>
       </c>
       <c r="H6">
-        <v>17.61448713326523</v>
+        <v>2.489538937011936</v>
       </c>
       <c r="I6">
-        <v>32.68806288312134</v>
+        <v>3.751925120354537</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>18.24875249442564</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>34.41612331509737</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,13 +675,19 @@
         <v>0</v>
       </c>
       <c r="N6">
+        <v>7.474954832560378</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>22.90084339962192</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,31 +695,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>2.413539884411065</v>
+        <v>8.557711484262368</v>
       </c>
       <c r="D7">
-        <v>5.27651121771139</v>
+        <v>5.864234653906236</v>
       </c>
       <c r="E7">
-        <v>28.22414545941755</v>
+        <v>11.14349169113602</v>
       </c>
       <c r="F7">
-        <v>45.12223960922709</v>
+        <v>43.85657381214473</v>
       </c>
       <c r="G7">
-        <v>72.75201506235936</v>
+        <v>69.45058018248356</v>
       </c>
       <c r="H7">
-        <v>18.10655113117008</v>
+        <v>2.609312154603668</v>
       </c>
       <c r="I7">
-        <v>33.60714791057393</v>
+        <v>3.866434316363908</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>18.57076040365731</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>35.08474203750029</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,13 +728,19 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>23.33096569062625</v>
+        <v>7.572651278635563</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,31 +748,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.645593030986635</v>
+        <v>9.099881046096291</v>
       </c>
       <c r="D8">
-        <v>5.868147821955944</v>
+        <v>6.215379146861295</v>
       </c>
       <c r="E8">
-        <v>31.65716042284985</v>
+        <v>11.88630296096778</v>
       </c>
       <c r="F8">
-        <v>50.3593752613446</v>
+        <v>47.72619555605896</v>
       </c>
       <c r="G8">
-        <v>81.23097960465994</v>
+        <v>75.91519781220691</v>
       </c>
       <c r="H8">
-        <v>20.20906508888895</v>
+        <v>3.125857065750377</v>
       </c>
       <c r="I8">
-        <v>37.52711993459689</v>
+        <v>4.360414747747165</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>19.9606240798595</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>37.95901185177147</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,13 +781,19 @@
         <v>0</v>
       </c>
       <c r="N8">
+        <v>7.990145151762265</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
         <v>25.1395913014106</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,31 +801,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.106408089656794</v>
+        <v>10.12793402910722</v>
       </c>
       <c r="D9">
-        <v>6.994386651727328</v>
+        <v>6.86445946464621</v>
       </c>
       <c r="E9">
-        <v>38.21818287826305</v>
+        <v>13.25742057841471</v>
       </c>
       <c r="F9">
-        <v>60.13588021167444</v>
+        <v>54.72833555270458</v>
       </c>
       <c r="G9">
-        <v>97.06841998306051</v>
+        <v>87.53837851017533</v>
       </c>
       <c r="H9">
-        <v>24.14132605558775</v>
+        <v>4.095456574895998</v>
       </c>
       <c r="I9">
-        <v>44.83413734886921</v>
+        <v>5.291595477386137</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>22.51594430304368</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>43.19143816447166</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,13 +834,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>28.34722074380646</v>
+        <v>8.759855001404297</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>28.34722074380644</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,31 +854,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.465871725429082</v>
+        <v>10.78832673193588</v>
       </c>
       <c r="D10">
-        <v>7.832429631932671</v>
+        <v>7.242883294941084</v>
       </c>
       <c r="E10">
-        <v>43.1441549307216</v>
+        <v>14.01979829110702</v>
       </c>
       <c r="F10">
-        <v>67.21342030966061</v>
+        <v>59.16855400710032</v>
       </c>
       <c r="G10">
-        <v>108.547263589798</v>
+        <v>94.83564454880823</v>
       </c>
       <c r="H10">
-        <v>26.99416237229475</v>
+        <v>4.753342160199157</v>
       </c>
       <c r="I10">
-        <v>50.11977645715052</v>
+        <v>5.933839205982418</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>24.14143008125412</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>46.46092080869216</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,13 +887,19 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>30.48602834203862</v>
+        <v>9.174328950943488</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>30.48602834203865</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,31 +907,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.640469274137285</v>
+        <v>10.63112101392792</v>
       </c>
       <c r="D11">
-        <v>8.227253143895599</v>
+        <v>6.925272647326214</v>
       </c>
       <c r="E11">
-        <v>45.48494815187657</v>
+        <v>12.88872715742923</v>
       </c>
       <c r="F11">
-        <v>70.47923319369306</v>
+        <v>58.82237755380163</v>
       </c>
       <c r="G11">
-        <v>113.8495095226714</v>
+        <v>94.00305277240516</v>
       </c>
       <c r="H11">
-        <v>28.31248439697936</v>
+        <v>5.218361385597378</v>
       </c>
       <c r="I11">
-        <v>52.55843849364184</v>
+        <v>6.051122104882429</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>23.90373334581871</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>45.77257588440696</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,13 +940,19 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>31.41016321374474</v>
+        <v>8.355432397514774</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>31.41016321374476</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,31 +960,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.709076165167583</v>
+        <v>10.42510876441305</v>
       </c>
       <c r="D12">
-        <v>8.380230148940072</v>
+        <v>6.596083323832164</v>
       </c>
       <c r="E12">
-        <v>46.39624763137974</v>
+        <v>11.90907721366107</v>
       </c>
       <c r="F12">
-        <v>71.7316086289194</v>
+        <v>57.67673691200957</v>
       </c>
       <c r="G12">
-        <v>115.8839298630001</v>
+        <v>91.90967403064856</v>
       </c>
       <c r="H12">
-        <v>28.81838876180768</v>
+        <v>5.969982442767631</v>
       </c>
       <c r="I12">
-        <v>53.49363918311336</v>
+        <v>6.028008362999274</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>23.3907290319718</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>44.57655243991173</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,13 +993,19 @@
         <v>0</v>
       </c>
       <c r="N12">
+        <v>7.648582323932251</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
         <v>31.75299711977163</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,31 +1013,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.694170363035783</v>
+        <v>10.14315988211789</v>
       </c>
       <c r="D13">
-        <v>8.347097543122514</v>
+        <v>6.216021385977699</v>
       </c>
       <c r="E13">
-        <v>46.19864941684942</v>
+        <v>10.98147031735295</v>
       </c>
       <c r="F13">
-        <v>71.46099975767642</v>
+        <v>55.73297303661735</v>
       </c>
       <c r="G13">
-        <v>115.444283657942</v>
+        <v>88.51684664094347</v>
       </c>
       <c r="H13">
-        <v>28.70905747126162</v>
+        <v>6.872983433797124</v>
       </c>
       <c r="I13">
-        <v>53.29156207928584</v>
+        <v>5.891747035663239</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>22.58811616474773</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>42.80725228667523</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,13 +1046,19 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>31.67947945617576</v>
+        <v>6.997054062412417</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>31.67947945617575</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,31 +1066,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.646056918654764</v>
+        <v>9.915971196083094</v>
       </c>
       <c r="D14">
-        <v>8.239757918483891</v>
+        <v>5.92248964281532</v>
       </c>
       <c r="E14">
-        <v>45.55934304609421</v>
+        <v>10.39053151721412</v>
       </c>
       <c r="F14">
-        <v>70.58188584619558</v>
+        <v>53.97224536400407</v>
       </c>
       <c r="G14">
-        <v>114.0162390895403</v>
+        <v>85.48411072225151</v>
       </c>
       <c r="H14">
-        <v>28.3539439324081</v>
+        <v>7.580601957274098</v>
       </c>
       <c r="I14">
-        <v>52.6350926080348</v>
+        <v>5.746176928459605</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>21.88021552659234</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>41.27397337386192</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,13 +1099,19 @@
         <v>0</v>
       </c>
       <c r="N14">
+        <v>6.592569253997704</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>31.43851144188476</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,31 +1119,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.616944628718787</v>
+        <v>9.836597897485627</v>
       </c>
       <c r="D15">
-        <v>8.174517722227922</v>
+        <v>5.835728222039135</v>
       </c>
       <c r="E15">
-        <v>45.17139245949436</v>
+        <v>10.23911800912142</v>
       </c>
       <c r="F15">
-        <v>70.04578359464945</v>
+        <v>53.3481383159931</v>
       </c>
       <c r="G15">
-        <v>113.1455428022724</v>
+        <v>84.42343758305978</v>
       </c>
       <c r="H15">
-        <v>28.13743673687191</v>
+        <v>7.736427942279356</v>
       </c>
       <c r="I15">
-        <v>52.23476871725477</v>
+        <v>5.684916087965731</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>21.63646888724747</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>40.75517782978181</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,13 +1152,19 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>31.28998244549475</v>
+        <v>6.49622045749908</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>31.28998244549472</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,31 +1172,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.454751650562792</v>
+        <v>9.595646077507553</v>
       </c>
       <c r="D16">
-        <v>7.807014650070546</v>
+        <v>5.732850235591302</v>
       </c>
       <c r="E16">
-        <v>42.99397941753779</v>
+        <v>10.05047273099764</v>
       </c>
       <c r="F16">
-        <v>67.00160799197808</v>
+        <v>51.73521857793693</v>
       </c>
       <c r="G16">
-        <v>108.2035076779895</v>
+        <v>81.79082767948962</v>
       </c>
       <c r="H16">
-        <v>26.90870353695423</v>
+        <v>7.393931049604417</v>
       </c>
       <c r="I16">
-        <v>49.9616100318956</v>
+        <v>5.440209717974607</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>21.06057670408789</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>39.61095866663705</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,13 +1205,19 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>30.424642833461</v>
+        <v>6.427842544362666</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>30.42464283346099</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,31 +1225,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.358605752316132</v>
+        <v>9.526412666990428</v>
       </c>
       <c r="D17">
-        <v>7.585924484816029</v>
+        <v>5.811963824336863</v>
       </c>
       <c r="E17">
-        <v>41.68986829844989</v>
+        <v>10.2038524159516</v>
       </c>
       <c r="F17">
-        <v>65.15124734871547</v>
+        <v>51.45641166341272</v>
       </c>
       <c r="G17">
-        <v>105.2011453888255</v>
+        <v>81.4249868465787</v>
       </c>
       <c r="H17">
-        <v>26.16236732979843</v>
+        <v>6.695627076626769</v>
       </c>
       <c r="I17">
-        <v>48.5798641867768</v>
+        <v>5.328477054700919</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>21.00413157041282</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>39.56936932056631</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,13 +1258,19 @@
         <v>0</v>
       </c>
       <c r="N17">
+        <v>6.579226463280256</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>29.88120505119274</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,31 +1278,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.304276457525711</v>
+        <v>9.630407859814534</v>
       </c>
       <c r="D18">
-        <v>7.45991998506466</v>
+        <v>6.069816873899357</v>
       </c>
       <c r="E18">
-        <v>40.94835250130514</v>
+        <v>10.78575779412577</v>
       </c>
       <c r="F18">
-        <v>64.0906128708842</v>
+        <v>52.3556633375057</v>
       </c>
       <c r="G18">
-        <v>103.4806689348044</v>
+        <v>83.07879010776108</v>
       </c>
       <c r="H18">
-        <v>25.7347378578691</v>
+        <v>5.701317032661554</v>
       </c>
       <c r="I18">
-        <v>47.78780839584792</v>
+        <v>5.324460291751876</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>21.41070306524697</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>40.52633642009765</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,13 +1311,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>29.56404287680426</v>
+        <v>7.009166933056335</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>29.5640428768043</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,31 +1331,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.286027285105812</v>
+        <v>9.887064101063853</v>
       </c>
       <c r="D19">
-        <v>7.417420550841237</v>
+        <v>6.434782762298573</v>
       </c>
       <c r="E19">
-        <v>40.69851430417697</v>
+        <v>11.78352962776908</v>
       </c>
       <c r="F19">
-        <v>63.73190929530563</v>
+        <v>54.01788383031909</v>
       </c>
       <c r="G19">
-        <v>102.8988851583122</v>
+        <v>86.02737221646498</v>
       </c>
       <c r="H19">
-        <v>25.59014277711345</v>
+        <v>4.79150950993315</v>
       </c>
       <c r="I19">
-        <v>47.51992997163165</v>
+        <v>5.411719623066458</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>22.11028183541757</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>42.10055489999596</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,13 +1364,19 @@
         <v>0</v>
       </c>
       <c r="N19">
+        <v>7.713152733900168</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>29.45587200880252</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,31 +1384,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.368734918410736</v>
+        <v>10.56824786857894</v>
       </c>
       <c r="D20">
-        <v>7.609330928443517</v>
+        <v>7.108412965767956</v>
       </c>
       <c r="E20">
-        <v>41.82774476484942</v>
+        <v>13.78206629407638</v>
       </c>
       <c r="F20">
-        <v>65.34779077476639</v>
+        <v>57.8530246928588</v>
       </c>
       <c r="G20">
-        <v>105.5200005710786</v>
+        <v>92.6563667355509</v>
       </c>
       <c r="H20">
-        <v>26.24162397007521</v>
+        <v>4.569534806947048</v>
       </c>
       <c r="I20">
-        <v>48.72663486374017</v>
+        <v>5.757345104061033</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>23.65001647676148</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>45.45017107343705</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,13 +1417,19 @@
         <v>0</v>
       </c>
       <c r="N20">
+        <v>9.061980132128216</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
         <v>29.93953086719064</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,31 +1437,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.660111984954777</v>
+        <v>11.16163304215542</v>
       </c>
       <c r="D21">
-        <v>8.271176411504836</v>
+        <v>7.479497923418302</v>
       </c>
       <c r="E21">
-        <v>45.74633675107917</v>
+        <v>14.63369407003673</v>
       </c>
       <c r="F21">
-        <v>70.83958441079325</v>
+        <v>61.57036710854698</v>
       </c>
       <c r="G21">
-        <v>114.4348149041327</v>
+        <v>98.80205557957835</v>
       </c>
       <c r="H21">
-        <v>28.45802961719273</v>
+        <v>5.115751955188059</v>
       </c>
       <c r="I21">
-        <v>52.82752521020053</v>
+        <v>6.277869206766162</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>25.03727451740098</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>48.27037626627394</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,13 +1470,19 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>31.50948335633597</v>
+        <v>9.560185028254779</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>31.50948335633596</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,31 +1490,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.865873600035783</v>
+        <v>11.53641513362747</v>
       </c>
       <c r="D22">
-        <v>8.725269166305136</v>
+        <v>7.700787313879728</v>
       </c>
       <c r="E22">
-        <v>48.46201065673949</v>
+        <v>15.1015917739176</v>
       </c>
       <c r="F22">
-        <v>74.52800396215271</v>
+        <v>63.85720569696976</v>
       </c>
       <c r="G22">
-        <v>120.4290313638901</v>
+        <v>102.5682486310279</v>
       </c>
       <c r="H22">
-        <v>29.94876753831021</v>
+        <v>5.459771621594781</v>
       </c>
       <c r="I22">
-        <v>55.58195683076811</v>
+        <v>6.609961554703725</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>25.89124966192777</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>49.99823572489102</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,13 +1523,19 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>32.49403281050591</v>
+        <v>9.817915385594722</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>32.49403281050594</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,31 +1543,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.754219212574159</v>
+        <v>11.35359634578015</v>
       </c>
       <c r="D23">
-        <v>8.480222700401265</v>
+        <v>7.59608000436325</v>
       </c>
       <c r="E23">
-        <v>46.99337207370456</v>
+        <v>14.86461715202263</v>
       </c>
       <c r="F23">
-        <v>72.54611748821004</v>
+        <v>62.7023840232949</v>
       </c>
       <c r="G23">
-        <v>117.2074180892213</v>
+        <v>100.673336878966</v>
       </c>
       <c r="H23">
-        <v>29.14752489680498</v>
+        <v>5.280302476268504</v>
       </c>
       <c r="I23">
-        <v>54.1018828858076</v>
+        <v>6.436010955101926</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>25.46234256156144</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>49.13901099277865</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,13 +1576,19 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>31.97238356075504</v>
+        <v>9.680594445791012</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>31.97238356075506</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,31 +1596,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.364152635739839</v>
+        <v>10.62806260979466</v>
       </c>
       <c r="D24">
-        <v>7.598745541868903</v>
+        <v>7.165940299160943</v>
       </c>
       <c r="E24">
-        <v>41.76538587484423</v>
+        <v>13.92946709090107</v>
       </c>
       <c r="F24">
-        <v>65.2589242594064</v>
+        <v>58.09184291366448</v>
       </c>
       <c r="G24">
-        <v>105.375829658716</v>
+        <v>93.08248396487461</v>
       </c>
       <c r="H24">
-        <v>26.20578778405049</v>
+        <v>4.589986590055864</v>
       </c>
       <c r="I24">
-        <v>48.66027305459457</v>
+        <v>5.76885754834549</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>23.75175150067571</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>45.68611755069174</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,13 +1629,19 @@
         <v>0</v>
       </c>
       <c r="N24">
+        <v>9.150912261662278</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>29.91317649911916</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,31 +1649,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2.979691243541672</v>
+        <v>9.827880144985055</v>
       </c>
       <c r="D25">
-        <v>6.69069869334223</v>
+        <v>6.674274588752144</v>
       </c>
       <c r="E25">
-        <v>36.4439186957575</v>
+        <v>12.87796456338976</v>
       </c>
       <c r="F25">
-        <v>57.52722404254519</v>
+        <v>52.80705984612998</v>
       </c>
       <c r="G25">
-        <v>92.84081974826447</v>
+        <v>84.34751713551501</v>
       </c>
       <c r="H25">
-        <v>23.09115263086775</v>
+        <v>3.831799500489294</v>
       </c>
       <c r="I25">
-        <v>42.88532319533839</v>
+        <v>5.038848664188277</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>21.80627118622491</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>41.73176096271226</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>27.51708508088412</v>
+        <v>8.557347720686776</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>27.51708508088413</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_6/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.265478549016693</v>
+        <v>7.910088423762265</v>
       </c>
       <c r="D2">
-        <v>6.323915762868054</v>
+        <v>5.164132644923911</v>
       </c>
       <c r="E2">
-        <v>12.09639915018565</v>
+        <v>10.8822692255075</v>
       </c>
       <c r="F2">
-        <v>48.81294783194205</v>
+        <v>42.77591397526108</v>
       </c>
       <c r="G2">
-        <v>77.7327752381315</v>
+        <v>66.68766068156718</v>
       </c>
       <c r="H2">
-        <v>3.267048580782637</v>
+        <v>2.946756239172523</v>
       </c>
       <c r="I2">
-        <v>4.495259252082294</v>
+        <v>4.143093026019935</v>
       </c>
       <c r="J2">
-        <v>20.35774902796469</v>
+        <v>18.38335929128265</v>
       </c>
       <c r="K2">
-        <v>38.78639100763952</v>
+        <v>32.90039562494366</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>26.60690068832452</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>23.02465243970519</v>
       </c>
       <c r="N2">
-        <v>8.099530740873245</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>25.60720851682374</v>
+        <v>8.175603376888853</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>25.60720851682176</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.843984840840996</v>
+        <v>7.562605755477142</v>
       </c>
       <c r="D3">
-        <v>6.052566375396233</v>
+        <v>5.005020889391122</v>
       </c>
       <c r="E3">
-        <v>11.52306752992278</v>
+        <v>10.44727169904535</v>
       </c>
       <c r="F3">
-        <v>45.84294354829898</v>
+        <v>40.36137907028604</v>
       </c>
       <c r="G3">
-        <v>72.78146236255994</v>
+        <v>62.67412681676721</v>
       </c>
       <c r="H3">
-        <v>2.866693837918612</v>
+        <v>2.620647366283468</v>
       </c>
       <c r="I3">
-        <v>4.111645236163951</v>
+        <v>3.843813576939192</v>
       </c>
       <c r="J3">
-        <v>19.28558782484251</v>
+        <v>17.53571641577674</v>
       </c>
       <c r="K3">
-        <v>36.57622993839981</v>
+        <v>31.23252518561616</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>25.65113727002993</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>21.42528418519438</v>
       </c>
       <c r="N3">
-        <v>7.777307753546993</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
+        <v>7.869228457902097</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>24.22561817997339</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.576603183129896</v>
+        <v>7.344029458999951</v>
       </c>
       <c r="D4">
-        <v>5.878358526799434</v>
+        <v>4.902066553964665</v>
       </c>
       <c r="E4">
-        <v>11.15757997270539</v>
+        <v>10.16949201960279</v>
       </c>
       <c r="F4">
-        <v>43.9327495609207</v>
+        <v>38.80615925365166</v>
       </c>
       <c r="G4">
-        <v>69.58478828257059</v>
+        <v>60.08094959878978</v>
       </c>
       <c r="H4">
-        <v>2.614169682027283</v>
+        <v>2.41401876206528</v>
       </c>
       <c r="I4">
-        <v>3.870212296893875</v>
+        <v>3.654737853571399</v>
       </c>
       <c r="J4">
-        <v>18.60104532218777</v>
+        <v>16.99195515003893</v>
       </c>
       <c r="K4">
-        <v>35.15606370347238</v>
+        <v>30.15928575525724</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>25.02966889693812</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>20.40315203991757</v>
       </c>
       <c r="N4">
-        <v>7.573411228495347</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
+        <v>7.675268314847234</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>23.33595077662917</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.460152823248713</v>
+        <v>7.253274573527688</v>
       </c>
       <c r="D5">
-        <v>5.801523356680591</v>
+        <v>4.855697198967732</v>
       </c>
       <c r="E5">
-        <v>11.00161129090456</v>
+        <v>10.0505854662699</v>
       </c>
       <c r="F5">
-        <v>43.11289086400062</v>
+        <v>38.13650867553139</v>
       </c>
       <c r="G5">
-        <v>68.20749617309542</v>
+        <v>58.96006134352992</v>
       </c>
       <c r="H5">
-        <v>2.508464682036819</v>
+        <v>2.327335300983739</v>
       </c>
       <c r="I5">
-        <v>3.769516569311707</v>
+        <v>3.576055691669681</v>
       </c>
       <c r="J5">
-        <v>18.30765857746523</v>
+        <v>16.75756767025678</v>
       </c>
       <c r="K5">
-        <v>34.5424754071097</v>
+        <v>29.69273412013074</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>24.75473322877535</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>19.96413686332382</v>
       </c>
       <c r="N5">
-        <v>7.488932654744825</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
+        <v>7.594988603515519</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>22.96331756195408</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.434267156667163</v>
+        <v>7.237774024799023</v>
       </c>
       <c r="D6">
-        <v>5.783796645801629</v>
+        <v>4.844116439932126</v>
       </c>
       <c r="E6">
-        <v>10.97105756318891</v>
+        <v>10.02697474431401</v>
       </c>
       <c r="F6">
-        <v>42.95111236096624</v>
+        <v>38.00233990633631</v>
       </c>
       <c r="G6">
-        <v>67.93313822039964</v>
+        <v>58.73286674695246</v>
       </c>
       <c r="H6">
-        <v>2.489538937011936</v>
+        <v>2.31183182279574</v>
       </c>
       <c r="I6">
-        <v>3.751925120354537</v>
+        <v>3.562782502763135</v>
       </c>
       <c r="J6">
-        <v>18.24875249442564</v>
+        <v>16.70961496528161</v>
       </c>
       <c r="K6">
-        <v>34.41612331509737</v>
+        <v>29.59363572125753</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>24.69268691938207</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>19.87483871186763</v>
       </c>
       <c r="N6">
-        <v>7.474954832560378</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
+        <v>7.581803822083273</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>22.90084339962192</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.557711484262368</v>
+        <v>7.340943992885811</v>
       </c>
       <c r="D7">
-        <v>5.864234653906236</v>
+        <v>4.884818696323932</v>
       </c>
       <c r="E7">
-        <v>11.14349169113602</v>
+        <v>10.15902216989891</v>
       </c>
       <c r="F7">
-        <v>43.85657381214473</v>
+        <v>38.70323383823947</v>
       </c>
       <c r="G7">
-        <v>69.45058018248356</v>
+        <v>60.03997122226045</v>
       </c>
       <c r="H7">
-        <v>2.609312154603668</v>
+        <v>2.4091074142568</v>
       </c>
       <c r="I7">
-        <v>3.866434316363908</v>
+        <v>3.651871969289922</v>
       </c>
       <c r="J7">
-        <v>18.57076040365731</v>
+        <v>16.88564226131199</v>
       </c>
       <c r="K7">
-        <v>35.08474203750029</v>
+        <v>30.07220459205803</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>24.96486705432259</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>20.3358805789074</v>
       </c>
       <c r="N7">
-        <v>7.572651278635563</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
+        <v>7.673701644602521</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>23.33096569062624</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.099881046096291</v>
+        <v>7.787364460551981</v>
       </c>
       <c r="D8">
-        <v>6.215379146861295</v>
+        <v>5.077091362591663</v>
       </c>
       <c r="E8">
-        <v>11.88630296096778</v>
+        <v>10.72550872746068</v>
       </c>
       <c r="F8">
-        <v>47.72619555605896</v>
+        <v>41.77675284165644</v>
       </c>
       <c r="G8">
-        <v>75.91519781220691</v>
+        <v>65.44407945397637</v>
       </c>
       <c r="H8">
-        <v>3.125857065750377</v>
+        <v>2.828899547050797</v>
       </c>
       <c r="I8">
-        <v>4.360414747747165</v>
+        <v>4.035966071181564</v>
       </c>
       <c r="J8">
-        <v>19.9606240798595</v>
+        <v>17.81629343304873</v>
       </c>
       <c r="K8">
-        <v>37.95901185177147</v>
+        <v>32.18873952013188</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>26.17425987898153</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>22.36983745348131</v>
       </c>
       <c r="N8">
-        <v>7.990145151762265</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
+        <v>8.068510089529855</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>25.1395913014106</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.12793402910722</v>
+        <v>8.62864130731989</v>
       </c>
       <c r="D9">
-        <v>6.86445946464621</v>
+        <v>5.452356471659749</v>
       </c>
       <c r="E9">
-        <v>13.25742057841471</v>
+        <v>11.76421689158492</v>
       </c>
       <c r="F9">
-        <v>54.72833555270458</v>
+        <v>47.44377124315081</v>
       </c>
       <c r="G9">
-        <v>87.53837851017533</v>
+        <v>74.89280505976652</v>
       </c>
       <c r="H9">
-        <v>4.095456574895998</v>
+        <v>3.611960947466033</v>
       </c>
       <c r="I9">
-        <v>5.291595477386137</v>
+        <v>4.755639222795999</v>
       </c>
       <c r="J9">
-        <v>22.51594430304368</v>
+        <v>19.78327124508037</v>
       </c>
       <c r="K9">
-        <v>43.19143816447166</v>
+        <v>36.12407710326268</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>28.40889336361578</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>26.16255895758066</v>
       </c>
       <c r="N9">
-        <v>8.759855001404297</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
+        <v>8.797834877110663</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>28.34722074380644</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>10.78832673193588</v>
+        <v>9.21981784897449</v>
       </c>
       <c r="D10">
-        <v>7.242883294941084</v>
+        <v>5.626451829541472</v>
       </c>
       <c r="E10">
-        <v>14.01979829110702</v>
+        <v>12.3209113787</v>
       </c>
       <c r="F10">
-        <v>59.16855400710032</v>
+        <v>50.85157187184688</v>
       </c>
       <c r="G10">
-        <v>94.83564454880823</v>
+        <v>81.14756199630507</v>
       </c>
       <c r="H10">
-        <v>4.753342160199157</v>
+        <v>4.132355070820464</v>
       </c>
       <c r="I10">
-        <v>5.933839205982418</v>
+        <v>5.243028588196252</v>
       </c>
       <c r="J10">
-        <v>24.14143008125412</v>
+        <v>20.63348098010292</v>
       </c>
       <c r="K10">
-        <v>46.46092080869216</v>
+        <v>38.43847649758652</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>29.64105778503903</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>28.4789751035725</v>
       </c>
       <c r="N10">
-        <v>9.174328950943488</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
+        <v>9.172360925725409</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>30.48602834203865</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.63112101392792</v>
+        <v>9.480997020058153</v>
       </c>
       <c r="D11">
-        <v>6.925272647326214</v>
+        <v>5.308379882537335</v>
       </c>
       <c r="E11">
-        <v>12.88872715742923</v>
+        <v>11.30508393712286</v>
       </c>
       <c r="F11">
-        <v>58.82237755380163</v>
+        <v>50.19140674607135</v>
       </c>
       <c r="G11">
-        <v>94.00305277240516</v>
+        <v>81.16603999282617</v>
       </c>
       <c r="H11">
-        <v>5.218361385597378</v>
+        <v>4.634073407098843</v>
       </c>
       <c r="I11">
-        <v>6.051122104882429</v>
+        <v>5.33378212253348</v>
       </c>
       <c r="J11">
-        <v>23.90373334581871</v>
+        <v>19.59139573370424</v>
       </c>
       <c r="K11">
-        <v>45.77257588440696</v>
+        <v>37.54817577871489</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>28.76201364867108</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>28.03704853232447</v>
       </c>
       <c r="N11">
-        <v>8.355432397514774</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
+        <v>8.288535402986779</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>31.41016321374476</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.42510876441305</v>
+        <v>9.612538533669749</v>
       </c>
       <c r="D12">
-        <v>6.596083323832164</v>
+        <v>5.045588308951452</v>
       </c>
       <c r="E12">
-        <v>11.90907721366107</v>
+        <v>10.48664960479321</v>
       </c>
       <c r="F12">
-        <v>57.67673691200957</v>
+        <v>49.08491392522321</v>
       </c>
       <c r="G12">
-        <v>91.90967403064856</v>
+        <v>79.78558490863958</v>
       </c>
       <c r="H12">
-        <v>5.969982442767631</v>
+        <v>5.481492765040552</v>
       </c>
       <c r="I12">
-        <v>6.028008362999274</v>
+        <v>5.320126873474785</v>
       </c>
       <c r="J12">
-        <v>23.3907290319718</v>
+        <v>18.78958275702783</v>
       </c>
       <c r="K12">
-        <v>44.57655243991173</v>
+        <v>36.44262228524834</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>27.86185597587961</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>27.27976511463189</v>
       </c>
       <c r="N12">
-        <v>7.648582323932251</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
+        <v>7.529719229016483</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>31.75299711977163</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.14315988211789</v>
+        <v>9.661203008811251</v>
       </c>
       <c r="D13">
-        <v>6.216021385977699</v>
+        <v>4.802960523605202</v>
       </c>
       <c r="E13">
-        <v>10.98147031735295</v>
+        <v>9.77851622679</v>
       </c>
       <c r="F13">
-        <v>55.73297303661735</v>
+        <v>47.53245180810195</v>
       </c>
       <c r="G13">
-        <v>88.51684664094347</v>
+        <v>76.91791868668055</v>
       </c>
       <c r="H13">
-        <v>6.872983433797124</v>
+        <v>6.491627285718768</v>
       </c>
       <c r="I13">
-        <v>5.891747035663239</v>
+        <v>5.225587539953345</v>
       </c>
       <c r="J13">
-        <v>22.58811616474773</v>
+        <v>18.23956723381843</v>
       </c>
       <c r="K13">
-        <v>42.80725228667523</v>
+        <v>35.05476403821393</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>26.85164677299655</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>26.19716080015568</v>
       </c>
       <c r="N13">
-        <v>6.997054062412417</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
+        <v>6.835212187776348</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>31.67947945617575</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.915971196083094</v>
+        <v>9.667914824558512</v>
       </c>
       <c r="D14">
-        <v>5.92248964281532</v>
+        <v>4.637979354031391</v>
       </c>
       <c r="E14">
-        <v>10.39053151721412</v>
+        <v>9.377381777458027</v>
       </c>
       <c r="F14">
-        <v>53.97224536400407</v>
+        <v>46.20663184648529</v>
       </c>
       <c r="G14">
-        <v>85.48411072225151</v>
+        <v>74.17946427370524</v>
       </c>
       <c r="H14">
-        <v>7.580601957274098</v>
+        <v>7.269277251255328</v>
       </c>
       <c r="I14">
-        <v>5.746176928459605</v>
+        <v>5.123489954401315</v>
       </c>
       <c r="J14">
-        <v>21.88021552659234</v>
+        <v>17.94798520995998</v>
       </c>
       <c r="K14">
-        <v>41.27397337386192</v>
+        <v>33.92292348468234</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>26.07060821728854</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>25.26683176905095</v>
       </c>
       <c r="N14">
-        <v>6.592569253997704</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
+        <v>6.404265335536084</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>31.43851144188476</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.836597897485627</v>
+        <v>9.651881584931726</v>
       </c>
       <c r="D15">
-        <v>5.835728222039135</v>
+        <v>4.596188175302954</v>
       </c>
       <c r="E15">
-        <v>10.23911800912142</v>
+        <v>9.282477634445296</v>
       </c>
       <c r="F15">
-        <v>53.3481383159931</v>
+        <v>45.76146843068997</v>
       </c>
       <c r="G15">
-        <v>84.42343758305978</v>
+        <v>73.16492513574707</v>
       </c>
       <c r="H15">
-        <v>7.736427942279356</v>
+        <v>7.444292170289303</v>
       </c>
       <c r="I15">
-        <v>5.684916087965731</v>
+        <v>5.080318838025259</v>
       </c>
       <c r="J15">
-        <v>21.63646888724747</v>
+        <v>17.90980555457676</v>
       </c>
       <c r="K15">
-        <v>40.75517782978181</v>
+        <v>33.56324941737375</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>25.83880195679277</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>24.95238941956502</v>
       </c>
       <c r="N15">
-        <v>6.49622045749908</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
+        <v>6.304738289566093</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>31.28998244549472</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.595646077507553</v>
+        <v>9.420787813355957</v>
       </c>
       <c r="D16">
-        <v>5.732850235591302</v>
+        <v>4.597613148868216</v>
       </c>
       <c r="E16">
-        <v>10.05047273099764</v>
+        <v>9.149628005998348</v>
       </c>
       <c r="F16">
-        <v>51.73521857793693</v>
+        <v>44.76866694594124</v>
       </c>
       <c r="G16">
-        <v>81.79082767948962</v>
+        <v>70.34328645261337</v>
       </c>
       <c r="H16">
-        <v>7.393931049604417</v>
+        <v>7.136185402617732</v>
       </c>
       <c r="I16">
-        <v>5.440209717974607</v>
+        <v>4.900570100444634</v>
       </c>
       <c r="J16">
-        <v>21.06057670408789</v>
+        <v>18.20069876250216</v>
       </c>
       <c r="K16">
-        <v>39.61095866663705</v>
+        <v>32.93916622074604</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>25.57207380919933</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>24.24990189289296</v>
       </c>
       <c r="N16">
-        <v>6.427842544362666</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
+        <v>6.269639508272223</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>30.42464283346099</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.526412666990428</v>
+        <v>9.2257607018879</v>
       </c>
       <c r="D17">
-        <v>5.811963824336863</v>
+        <v>4.682387144851154</v>
       </c>
       <c r="E17">
-        <v>10.2038524159516</v>
+        <v>9.236149044901243</v>
       </c>
       <c r="F17">
-        <v>51.45641166341272</v>
+        <v>44.68923986518504</v>
       </c>
       <c r="G17">
-        <v>81.4249868465787</v>
+        <v>69.76666790965852</v>
       </c>
       <c r="H17">
-        <v>6.695627076626769</v>
+        <v>6.431334910625162</v>
       </c>
       <c r="I17">
-        <v>5.328477054700919</v>
+        <v>4.81492320840924</v>
       </c>
       <c r="J17">
-        <v>21.00413157041282</v>
+        <v>18.48714351949521</v>
       </c>
       <c r="K17">
-        <v>39.56936932056631</v>
+        <v>33.04983512356307</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>25.77471184697431</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>24.19563757643931</v>
       </c>
       <c r="N17">
-        <v>6.579226463280256</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
+        <v>6.460174614017141</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>29.88120505119274</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.630407859814534</v>
+        <v>9.056658118261604</v>
       </c>
       <c r="D18">
-        <v>6.069816873899357</v>
+        <v>4.872067454579062</v>
       </c>
       <c r="E18">
-        <v>10.78575779412577</v>
+        <v>9.651904296222662</v>
       </c>
       <c r="F18">
-        <v>52.3556633375057</v>
+        <v>45.49857156020089</v>
       </c>
       <c r="G18">
-        <v>83.07879010776108</v>
+        <v>71.02715730154631</v>
       </c>
       <c r="H18">
-        <v>5.701317032661554</v>
+        <v>5.385272461686372</v>
       </c>
       <c r="I18">
-        <v>5.324460291751876</v>
+        <v>4.805840756559123</v>
       </c>
       <c r="J18">
-        <v>21.41070306524697</v>
+        <v>18.96049764729092</v>
       </c>
       <c r="K18">
-        <v>40.52633642009765</v>
+        <v>33.89364220784512</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>26.47083537115939</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>24.76165822598161</v>
       </c>
       <c r="N18">
-        <v>7.009166933056335</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
+        <v>6.937099901473871</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>29.5640428768043</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>9.887064101063853</v>
+        <v>8.963340778755285</v>
       </c>
       <c r="D19">
-        <v>6.434782762298573</v>
+        <v>5.127996825338526</v>
       </c>
       <c r="E19">
-        <v>11.78352962776908</v>
+        <v>10.44715897341273</v>
       </c>
       <c r="F19">
-        <v>54.01788383031909</v>
+        <v>46.88172928729319</v>
       </c>
       <c r="G19">
-        <v>86.02737221646498</v>
+        <v>73.42899528254353</v>
       </c>
       <c r="H19">
-        <v>4.79150950993315</v>
+        <v>4.376559459849172</v>
       </c>
       <c r="I19">
-        <v>5.411719623066458</v>
+        <v>4.866181176637416</v>
       </c>
       <c r="J19">
-        <v>22.11028183541757</v>
+        <v>19.56560289061859</v>
       </c>
       <c r="K19">
-        <v>42.10055489999596</v>
+        <v>35.18054161558334</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>27.45174328200813</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>25.71992535571711</v>
       </c>
       <c r="N19">
-        <v>7.713152733900168</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
+        <v>7.686784576690029</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>29.45587200880252</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>10.56824786857894</v>
+        <v>9.070058776275717</v>
       </c>
       <c r="D20">
-        <v>7.108412965767956</v>
+        <v>5.572802182909799</v>
       </c>
       <c r="E20">
-        <v>13.78206629407638</v>
+        <v>12.13980817342518</v>
       </c>
       <c r="F20">
-        <v>57.8530246928588</v>
+        <v>49.92269741913613</v>
       </c>
       <c r="G20">
-        <v>92.6563667355509</v>
+        <v>79.05296628817045</v>
       </c>
       <c r="H20">
-        <v>4.569534806947048</v>
+        <v>3.990595864631409</v>
       </c>
       <c r="I20">
-        <v>5.757345104061033</v>
+        <v>5.11675813933294</v>
       </c>
       <c r="J20">
-        <v>23.65001647676148</v>
+        <v>20.58777492889955</v>
       </c>
       <c r="K20">
-        <v>45.45017107343705</v>
+        <v>37.76616259795757</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>29.2675238079351</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>27.82344934774919</v>
       </c>
       <c r="N20">
-        <v>9.061980132128216</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
+        <v>9.074796047354026</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>29.93953086719064</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.16163304215542</v>
+        <v>9.50738215829165</v>
       </c>
       <c r="D21">
-        <v>7.479497923418302</v>
+        <v>5.663233844052326</v>
       </c>
       <c r="E21">
-        <v>14.63369407003673</v>
+        <v>12.82234964886069</v>
       </c>
       <c r="F21">
-        <v>61.57036710854698</v>
+        <v>52.28168652522193</v>
       </c>
       <c r="G21">
-        <v>98.80205557957835</v>
+        <v>85.40496703164794</v>
       </c>
       <c r="H21">
-        <v>5.115751955188059</v>
+        <v>4.404953748422232</v>
       </c>
       <c r="I21">
-        <v>6.277869206766162</v>
+        <v>5.490572390161695</v>
       </c>
       <c r="J21">
-        <v>25.03727451740098</v>
+        <v>20.14814173641538</v>
       </c>
       <c r="K21">
-        <v>48.27037626627394</v>
+        <v>39.43150410474018</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>30.13969281201708</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>29.507204873254</v>
       </c>
       <c r="N21">
-        <v>9.560185028254779</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
+        <v>9.530336999943071</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>31.50948335633596</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.53641513362747</v>
+        <v>9.794141133557352</v>
       </c>
       <c r="D22">
-        <v>7.700787313879728</v>
+        <v>5.702088419207867</v>
       </c>
       <c r="E22">
-        <v>15.1015917739176</v>
+        <v>13.19187692820748</v>
       </c>
       <c r="F22">
-        <v>63.85720569696976</v>
+        <v>53.68718909456766</v>
       </c>
       <c r="G22">
-        <v>102.5682486310279</v>
+        <v>89.39035585873289</v>
       </c>
       <c r="H22">
-        <v>5.459771621594781</v>
+        <v>4.663268046141811</v>
       </c>
       <c r="I22">
-        <v>6.609961554703725</v>
+        <v>5.725959532572984</v>
       </c>
       <c r="J22">
-        <v>25.89124966192777</v>
+        <v>19.76122723547741</v>
       </c>
       <c r="K22">
-        <v>49.99823572489102</v>
+        <v>40.41583417991856</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>30.63689266791032</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>30.52202922285898</v>
       </c>
       <c r="N22">
-        <v>9.817915385594722</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
+        <v>9.756431752986314</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>32.49403281050594</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.35359634578015</v>
+        <v>9.642618763091926</v>
       </c>
       <c r="D23">
-        <v>7.59608000436325</v>
+        <v>5.705683323428325</v>
       </c>
       <c r="E23">
-        <v>14.86461715202263</v>
+        <v>13.00212739024193</v>
       </c>
       <c r="F23">
-        <v>62.7023840232949</v>
+        <v>53.06388458701367</v>
       </c>
       <c r="G23">
-        <v>100.673336878966</v>
+        <v>87.2152352355718</v>
       </c>
       <c r="H23">
-        <v>5.280302476268504</v>
+        <v>4.530545174868488</v>
       </c>
       <c r="I23">
-        <v>6.436010955101926</v>
+        <v>5.603516395958572</v>
       </c>
       <c r="J23">
-        <v>25.46234256156144</v>
+        <v>20.1556347496151</v>
       </c>
       <c r="K23">
-        <v>49.13901099277865</v>
+        <v>39.99516944987282</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>30.44887376268614</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>30.06081334005862</v>
       </c>
       <c r="N23">
-        <v>9.680594445791012</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
+        <v>9.637893775448044</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>31.97238356075506</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>10.62806260979466</v>
+        <v>9.063702291002693</v>
       </c>
       <c r="D24">
-        <v>7.165940299160943</v>
+        <v>5.617199917475442</v>
       </c>
       <c r="E24">
-        <v>13.92946709090107</v>
+        <v>12.2700178366246</v>
       </c>
       <c r="F24">
-        <v>58.09184291366448</v>
+        <v>50.13104330022197</v>
       </c>
       <c r="G24">
-        <v>93.08248396487461</v>
+        <v>79.40411629800221</v>
       </c>
       <c r="H24">
-        <v>4.589986590055864</v>
+        <v>4.00690105987997</v>
       </c>
       <c r="I24">
-        <v>5.76885754834549</v>
+        <v>5.122343515078607</v>
       </c>
       <c r="J24">
-        <v>23.75175150067571</v>
+        <v>20.68654900117391</v>
       </c>
       <c r="K24">
-        <v>45.68611755069174</v>
+        <v>37.96940278126682</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>29.42527068549067</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>27.9722444843981</v>
       </c>
       <c r="N24">
-        <v>9.150912261662278</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
+        <v>9.166699152498998</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>29.91317649911916</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,48 +1793,54 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>9.827880144985055</v>
+        <v>8.406037372243299</v>
       </c>
       <c r="D25">
-        <v>6.674274588752144</v>
+        <v>5.347001146763705</v>
       </c>
       <c r="E25">
-        <v>12.87796456338976</v>
+        <v>11.47449939004422</v>
       </c>
       <c r="F25">
-        <v>52.80705984612998</v>
+        <v>45.92659049400488</v>
       </c>
       <c r="G25">
-        <v>84.34751713551501</v>
+        <v>72.19205552482711</v>
       </c>
       <c r="H25">
-        <v>3.831799500489294</v>
+        <v>3.401606029337772</v>
       </c>
       <c r="I25">
-        <v>5.038848664188277</v>
+        <v>4.564668984719916</v>
       </c>
       <c r="J25">
-        <v>21.80627118622491</v>
+        <v>19.33527636124686</v>
       </c>
       <c r="K25">
-        <v>41.73176096271226</v>
+        <v>35.04569067430015</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>27.79072384458805</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>25.13057483253119</v>
       </c>
       <c r="N25">
-        <v>8.557347720686776</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
+        <v>8.608305682210093</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>27.51708508088413</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
